--- a/UECE TURMA IV - Panda Vídeo.xlsx
+++ b/UECE TURMA IV - Panda Vídeo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b48a3a89ec7ce938/ANTIGOS/Documentos/GitHub/APsycho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{4FE64627-6356-4F85-8954-C296B6A507B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7681E954-5227-4D99-A996-FCE167E1A441}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{4FE64627-6356-4F85-8954-C296B6A507B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1482F39-8979-4D37-ABEB-A7EFF3A61833}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2220" windowWidth="20730" windowHeight="11760" xr2:uid="{14D77176-CA24-4BBB-ADA7-272B8DEB25FE}"/>
   </bookViews>
@@ -25,553 +25,553 @@
     <t>Chave,Linha 1,Linha 2,Linha 3</t>
   </si>
   <si>
-    <t>sousaluiz035@gmail.com,Luiz Washington De Sousa Germano,Inscrição: 7991,Tel: (85) 99450-5678</t>
-  </si>
-  <si>
-    <t>fernando.firmino5882@gmail.com,Fernando Alves Firmino,Inscrição: 55920,Tel: (85) 99741-7646</t>
-  </si>
-  <si>
-    <t>jesusjpd9@gmail.com,Jesus Jussireldo Pereira Domingos,Inscrição: 3842,Tel: (88) 99300-8922</t>
-  </si>
-  <si>
-    <t>bia.tjcecorona@gmail.com,Beatriz Carvalho De Morais,Inscrição: 6906,Tel: (85) 99780-2656</t>
-  </si>
-  <si>
-    <t>brunozada9099@gmail.com,Bruno Silva Andrade Lacerda,Inscrição: 1051,Tel: (88) 99687-5622</t>
-  </si>
-  <si>
-    <t>robsonseid2000a@hotmaol.com,Robson Rodrigues Da Silva,Inscrição: 6803,Tel: (89) 99423-4072</t>
-  </si>
-  <si>
-    <t>arthurdesouzamatos@gmail.com,Arthur De Souza Matos,Inscrição: 4003,Tel: (85) 99964-1699</t>
-  </si>
-  <si>
-    <t>patriciarafaelacbrito@gmail.com,Patricia Rafaela Chaves Brito,Inscrição: 12024,Tel: (81) 99450-7050</t>
-  </si>
-  <si>
-    <t>jessicabarros432@gmail.com,Jessica Barros Lopes,Inscrição: 17,Tel: (85) 98531-6048</t>
-  </si>
-  <si>
-    <t>thaisaraujobarros12@gmail.com,Francisca Thais Rodrigues Araujo,Inscrição: 25333,Tel: (88) 99924-9150</t>
-  </si>
-  <si>
-    <t>pauloacacio20051262@gmail.com,Paulo Acacio Nascimento Da Silva,Inscrição: 16873,Tel: (85) 98503-8036</t>
-  </si>
-  <si>
-    <t>brendaivila7@gmail.com,Brenda Ãvila Carvalho De Oliveira,Inscrição: 7349,Tel: (85) 98706-3383</t>
-  </si>
-  <si>
-    <t>valdizialb@gmail.com,Maria Valdizia Lima Bernardino,Inscrição: 28198,Tel: (88) 99905-0399</t>
-  </si>
-  <si>
-    <t>monikagomesenzo@gmail.com,MÃ´nica Viana Gomes GirÃ£o,Inscrição: 10547,Tel: (85) 98163-7005</t>
-  </si>
-  <si>
-    <t>mssilvaguia@gmail.com,Maria Do Socorro Da Silva,Inscrição: 7166,Tel: (85) 98828-2882</t>
-  </si>
-  <si>
-    <t>vigabrielepereira0@gmail.com,VitÃ³ria Gabriele Pereira,Inscrição: 10489,Tel: (88) 98118-8027</t>
-  </si>
-  <si>
-    <t>elienemaximo94@gmail.com,Eliene Da Silva MÃ¡ximo,Inscrição: 13862,Tel: (88) 99648-5610</t>
-  </si>
-  <si>
-    <t>gabrielcavalcantee106@gmail.com,Gabriel Lucas Mendonca Cavalcante,Inscrição: 21996,Tel: (85) 98433-7796</t>
-  </si>
-  <si>
-    <t>virnasousa13@gmail.com,Virna VictÃ³ria De Sousa Cardoso,Inscrição: 22568,Tel: (85) 99954-3300</t>
-  </si>
-  <si>
-    <t>contatosamyan@gmail.com,Samya Nogueira Da Silva,Inscrição: 9072,Tel: (88) 99766-4628</t>
-  </si>
-  <si>
-    <t>stavaresalmeida@gmail.com,Sara Tavares De Almeida Peixoto,Inscrição: 1697,Tel: (85) 98775-8180</t>
-  </si>
-  <si>
-    <t>passosceres@gmail.com,Ceres Passos Vaz Da Costa,Inscrição: 29419,Tel: (86) 99946-0831</t>
-  </si>
-  <si>
-    <t>thalitatorquatol@gmail.com,Thalita Torquato Lins,Inscrição: 14090,Tel: (85) 99674-1471</t>
-  </si>
-  <si>
-    <t>kholandafarias@gmail.com,Karina Holanda Farias,Inscrição: 3448,Tel: (85) 98587-2207</t>
-  </si>
-  <si>
-    <t>rcmari6@gmail.com,Mariana Rocha Correa,Inscrição: 15095,Tel: (21) 98701-3770</t>
-  </si>
-  <si>
-    <t>marden10alves@gmail.com,Francisco Marden Alves De Souza,Inscrição: 38721,Tel: (85) 98602-1823</t>
-  </si>
-  <si>
-    <t>zadylac@gmail.com,Zadyla Maria Cipriano Eloi,Inscrição: 17479,Tel: (85) 98949-8630</t>
-  </si>
-  <si>
-    <t>jessysouza470@gmail.com,Jessica De Souza Saldanha Lima,Inscrição: 38885,Tel: (85) 98736-0198</t>
-  </si>
-  <si>
-    <t>thamy.1628@gmail.com,Thamy Adalgiza Bastos Gomes,Inscrição: 9668,Tel: (85) 99794-6583</t>
-  </si>
-  <si>
     <t>emilly.bandeira@urca.br,Emilly Bandeira De Lima,Inscrição: 5003,Tel: (88) 98877-0257</t>
   </si>
   <si>
-    <t>nayannefreitasf30@gmail.com,Nayanne Freitas FÃ©lix,Inscrição: 14474,Tel: (88) 99609-0085</t>
-  </si>
-  <si>
-    <t>dayrianecrios@gmail.com,Dayriane Cristina Felix Rios,Inscrição: 14176,Tel: (84) 99629-8485</t>
-  </si>
-  <si>
-    <t>flavioj2271@gmail.com,Flavio Junior Sampaio Da Costa,Inscrição: 22990,Tel: (85) 99434-0970</t>
-  </si>
-  <si>
-    <t>maiabruna387@gmail.com,Bruna Raquel Maia Da Silva,Inscrição: 16998,Tel: (85) 98406-3689</t>
-  </si>
-  <si>
-    <t>naiaraujo36@gmail.com,Naiara Herleany Araujo Barros Leal,Inscrição: 6828,Tel: (86) 99536-4161</t>
-  </si>
-  <si>
-    <t>prof.alexqueiroz3@gmail.com,Alexsandro Paulo Soares De Queiroz,Inscrição: 1543,Tel: (81) 99202-7897</t>
-  </si>
-  <si>
-    <t>karolinyolindas@gmail.com,Maria Karoliny Olinda Dos Santos,Inscrição: 19930,Tel: (85) 99164-0634</t>
-  </si>
-  <si>
-    <t>elisaary@gmail.com,Elisa Moreira Ary,Inscrição: 21622,Tel: (85) 99281-4494</t>
-  </si>
-  <si>
-    <t>edilvania44f@gmail.com,Edilvania Ferreira Cardoso,Inscrição: 27445,Tel: (88) 98230-6009</t>
-  </si>
-  <si>
-    <t>raissapdcs@gmail.com,Raissa Paula Dantas Cardoso Da Silva,Inscrição: 7269,Tel: (85) 99858-6045</t>
-  </si>
-  <si>
-    <t>nathangomens309512@gmail.com,Natanael Gomes MourÃ£o,Inscrição: 7944,Tel: (85) 99149-8625</t>
-  </si>
-  <si>
-    <t>jessicaloyserib@gmail.com,JÃ©ssica Loyse De Oliveira Ribeiro,Inscrição: 9388,Tel: (88) 99781-9086</t>
-  </si>
-  <si>
-    <t>melynamkss@gmail.com,Melyna Kelly De Souza Silva,Inscrição: 4025,Tel: (85) 99662-0544</t>
-  </si>
-  <si>
-    <t>cherabaygon@gmail.com,Alisson Feitosa Guerra,Inscrição: 4068,Tel: (85) 98149-8229</t>
-  </si>
-  <si>
-    <t>linsandreza6@gmail.com,Cicera Andreza Barbosa Lins,Inscrição: 28217,Tel: (88) 99708-9017</t>
-  </si>
-  <si>
-    <t>deboraprado86@gmail.com,Debora Prado Gomes,Inscrição: 29364,Tel: (85) 99749-0282</t>
-  </si>
-  <si>
-    <t>cleberdiego@gmail.com,Cleber Diego Pinto Cavalcante Ferreira,Inscrição: 37264,Tel: (85) 98582-7570</t>
-  </si>
-  <si>
-    <t>contatojackelinepereira@gmail.com,Maria Jackeline Pereira De Lima,Inscrição: 9929,Tel: (88) 92163-2151</t>
-  </si>
-  <si>
-    <t>luizcarlossudariofilho@gmail.com,Luiz Carlos Sudario Filho,Inscrição: 22772,Tel: (85) 98773-3609</t>
-  </si>
-  <si>
-    <t>perolamedeiros1@gmail.com,Perola Medeiros Farias,Inscrição: 28887,Tel: (85) 99915-8943</t>
-  </si>
-  <si>
-    <t>samianesoares@gmail.com,Samiane Moreira De Sousa,Inscrição: 1009079,Tel: (85) 99224-8136</t>
-  </si>
-  <si>
-    <t>vanessanogueiraadv@gmail.com,Vanessa Maria Nogueira MagalhÃ£es,Inscrição: 19131,Tel: (85) 99960-1426</t>
-  </si>
-  <si>
-    <t>daniele.rioslele@gmail.com,Daniele Sousa Rios Aquino,Inscrição: 25756,Tel: (85) 98886-0779</t>
-  </si>
-  <si>
-    <t>gomesthais.st@gmail.com,ThaÃ­s Gomes Da Silva,Inscrição: 1117,Tel: (88) 99838-9887</t>
-  </si>
-  <si>
-    <t>raianepereira118@gmail.com,Francisca Raiane De Sousa Pereira,Inscrição: 6462,Tel: (85) 98622-7589</t>
-  </si>
-  <si>
-    <t>caiobarbosa883@gmail.com,Caio Barboza De Oliveira,Inscrição: 18323,Tel: (85) 99439-2047</t>
-  </si>
-  <si>
-    <t>rosivandohbl@gmail.com,Rosivando Assuncao De Andrade Costa,Inscrição: 1474,Tel: (88) 99808-1167</t>
-  </si>
-  <si>
-    <t>jaredyjaredy@gmail.com,JÃ¡redy Henrique Soares Cardoso,Inscrição: 3471,Tel: (86) 99490-0800</t>
-  </si>
-  <si>
-    <t>janainaguimaraess10@gmail.com,JanaÃ­na GuimarÃ£es Pereira,Inscrição: 34990,Tel: 8599343094</t>
-  </si>
-  <si>
-    <t>vanessaandrads@gmail.com,Francisca Vanessa Silva De Andrade,Inscrição: 13746,Tel: (85) 98673-5628</t>
-  </si>
-  <si>
-    <t>alexandra.alane@gmail.com,Alexandra Alane Costa Da Silva,Inscrição: 22698,Tel: (85) 98718-8910</t>
-  </si>
-  <si>
-    <t>raphael9029@gmail.com,Raphael Albuquerque Lima,Inscrição: 30749,Tel: (85) 98199-2538</t>
-  </si>
-  <si>
-    <t>allan.dsm12225634@gmail.com,Allan De Sousa Marques,Inscrição: 38015,Tel: (88) 98167-5943</t>
-  </si>
-  <si>
-    <t>emersonmgoncalves2020@gmail.com,Emerson Moura GonÃ§alves,Inscrição: 28550,Tel: (85) 99283-5485</t>
-  </si>
-  <si>
-    <t>laragomes2k2@gmail.com,Maria Lara Matos Gomes,Inscrição: 3942,Tel: (85) 99434-9581</t>
-  </si>
-  <si>
-    <t>mesquitamotta25@gmail.com,Antonio Caiorilck De Meneses Motta,Inscrição: 2712,Tel: (61) 99927-5212</t>
-  </si>
-  <si>
-    <t>deniltond8@gmail.com,Denilton Araujo De Souza,Inscrição: 11043,Tel: (88) 99346-0006</t>
-  </si>
-  <si>
-    <t>lucasvale737@gmail.com,Francisco Lucas Do Vale Santana,Inscrição: 31697,Tel: (86) 98841-6402</t>
-  </si>
-  <si>
-    <t>diegoyvens.a.a@gmail.com,Diego Yvens AlcÃ¢ntara De AraÃºjo,Inscrição: 9368,Tel: (85) 99750-8366</t>
-  </si>
-  <si>
-    <t>eduardo.mauriciogadelha@gmail.com,Eduardo Mauricio Gadelha,Inscrição: 26565,Tel: (88) 99717-7043</t>
-  </si>
-  <si>
-    <t>elvis.s.n.filho@gmail.com,Elvis Sales Do Nascimento Filho,Inscrição: 24664,Tel: (88) 99644-2117</t>
-  </si>
-  <si>
-    <t>silvadarocha189@gmail.com,Francisco Da Silva Rocha,Inscrição: 16748,Tel: (88) 99320-9789</t>
-  </si>
-  <si>
-    <t>lorenalmoreira.adv@gmail.com,Lorena Lima Moreira Freire,Inscrição: 13067,Tel: (85) 98819-6167</t>
-  </si>
-  <si>
-    <t>danyela.santosss81@gmail.com,Daniela Sales Dos Santos,Inscrição: 18657,Tel: (85) 98797-3035</t>
-  </si>
-  <si>
-    <t>isacsouza425163@gmail.com,Isac Da Silva Souza,Inscrição: 33759,Tel: (88) 98164-2591</t>
-  </si>
-  <si>
-    <t>andre.lemos.profissional1@gmail.com,Carlos AndrÃ© Lemos Vieira,Inscrição: 4047,Tel: (88) 99939-3263</t>
-  </si>
-  <si>
-    <t>pedroengufu31@gmail.com,Pedro Paulo De Araujo Neto,Inscrição: 26801,Tel: (61) 98142-8170</t>
-  </si>
-  <si>
-    <t>isabella.vieira.lima25@gmail.com,Isabella Vieira De Lima,Inscrição: 15799,Tel: (88) 99960-2894</t>
-  </si>
-  <si>
-    <t>freitaslarine@gmail.com,Larine Freitas Do Nascimento,Inscrição: 6359,Tel: (85) 99133-3389</t>
-  </si>
-  <si>
-    <t>pamelalencars@gmail.com,PÃ¢mela NÃ¡iade De Alencar Souza,Inscrição: 33902,Tel: (84) 98723-4448</t>
-  </si>
-  <si>
-    <t>franciscomelodossantos4@gmail.com,Francisco Melo Dos Santos,Inscrição: 21114,Tel: (85) 99872-0814</t>
-  </si>
-  <si>
-    <t>davilessai7@gmail.com,Davi MendonÃ§a Lessa,Inscrição: 2225,Tel: (85) 99268-9597</t>
-  </si>
-  <si>
-    <t>leoosousa13@gmail.com,Leonardo Sousa Viana,Inscrição: 45184,Tel: (85) 98716-5359</t>
-  </si>
-  <si>
-    <t>guidscb@gmail.com,JosÃ© Guilherme Damasceno Braz,Inscrição: 11782,Tel: (85) 99277-5165</t>
-  </si>
-  <si>
-    <t>kaykyryan000@gmail.com,Kayky Ryan Benevides Nogueira,Inscrição: 55892,Tel: (88) 99245-9172</t>
-  </si>
-  <si>
-    <t>fernandoeletri@gmail.com,Fernando ApolinÃ¡rio Da Cunha,Inscrição: 14400,Tel: (85) 99626-7967</t>
-  </si>
-  <si>
-    <t>esterpri21@gmail.com,Ester Priscila Oliveira Carneiro,Inscrição: 8252,Tel: (85) 99192-4791</t>
-  </si>
-  <si>
-    <t>joaopedroviana100@gmail.com,JoÃ£o Pedro Viana Alves,Inscrição: 10817,Tel: (85) 99248-4741</t>
-  </si>
-  <si>
-    <t>paulamm275@gmail.com,Paula Aline Rodrigues Moura,Inscrição: 18000,Tel: (85) 98855-7243</t>
-  </si>
-  <si>
-    <t>ronaldo320filho@gmail.com,Ronaldo Costa Macedo Filho,Inscrição: 45779,Tel: (88) 98126-2741</t>
-  </si>
-  <si>
-    <t>eridamacieldesa@gmail.com,Erida Christie Maciel De Sa,Inscrição: 4475,Tel: (85) 98184-1944</t>
-  </si>
-  <si>
-    <t>tamirestamiresbessa@gmail.com,Tamires Bessa MagalhÃ£es,Inscrição: 5249,Tel: (85) 98615-0080</t>
-  </si>
-  <si>
-    <t>brunovanderbio17@gmail.com,Bruno Vanderbio De Medeiros Andrade,Inscrição: 58139,Tel: (87) 99961-6232</t>
-  </si>
-  <si>
-    <t>jairo.lobito@gmail.com,Jairo Albano Lobo Dos Santos,Inscrição: 24951,Tel: (85) 99184-8046</t>
-  </si>
-  <si>
-    <t>matheusamorim6582@gmail.com,Matheus Isaias De Oliveira Aguiar Amorim,Inscrição: 58126,Tel: (86) 99555-2613</t>
-  </si>
-  <si>
-    <t>anisiademoraes@gmail.com,Anisia Helena De Moraes Ferreira,Inscrição: 39693,Tel: (85) 99767-0542</t>
-  </si>
-  <si>
-    <t>andersonpepimenta@gmail.com,Anderson Pessoa Pimenta,Inscrição: 58016,Tel: (88) 99714-1316</t>
-  </si>
-  <si>
-    <t>franciscog2tt@gmail.com,Francisco Alisson Maciel Cruz,Inscrição: 3317,Tel: (88) 99656-9314</t>
-  </si>
-  <si>
-    <t>fthales79@gmail.com,Thales Felipe Santos Luz,Inscrição: 26806,Tel: (84) 98792-6050</t>
-  </si>
-  <si>
-    <t>k.32010@hotmail.com,Jean Carlos Silva Araujo Junior,Inscrição: 52241,Tel: (86) 99949-9195</t>
-  </si>
-  <si>
-    <t>jnmatheus5@gmail.com,Juan Matheus Nunes Cavalcante,Inscrição: 2856,Tel: (85) 98733-9168</t>
-  </si>
-  <si>
-    <t>ed.offsilva@gmail.com,Eduardo Fernandes Da Silva,Inscrição: 1392,Tel: (85) 98773-9108</t>
-  </si>
-  <si>
-    <t>germanotiago4@gmail.com,Tiago Germano Fonseca Beserra,Inscrição: 4349,Tel: (86) 99402-5926</t>
-  </si>
-  <si>
-    <t>caioc.a170298@gmail.com,Caio De Albuquerque Castilho,Inscrição: 56731,Tel: (85) 99900-6866</t>
-  </si>
-  <si>
-    <t>carlosmateusferreiraaraujo@gmail.com,Carlos Mateus Araujo Mesquita,Inscrição: 1882,Tel: (85) 99127-9570</t>
-  </si>
-  <si>
-    <t>bboaventuras@hotmail.com,Beatriz Boaventura Souza,Inscrição: 9628,Tel: (75) 98115-7412</t>
-  </si>
-  <si>
-    <t>joaovitoralves15@gmail.com,JoÃ£o Vitor Alves De Souza,Inscrição: 29748,Tel: (85) 99246-7391</t>
-  </si>
-  <si>
-    <t>georgiaviana07@gmail.com,Georgia Viana Peixoto De Araujo,Inscrição: 7366,Tel: (85) 98507-2844</t>
-  </si>
-  <si>
-    <t>bruna.fisioterapiag2@gmail.com,Bruna Stefane Da Silva Lima,Inscrição: 23499,Tel: (74) 98817-6762</t>
-  </si>
-  <si>
-    <t>denispontespf@gmail.com,Denis Pontes Queiroz,Inscrição: 6576,Tel: (88) 98133-1272</t>
-  </si>
-  <si>
-    <t>brennasousa201712@gmail.com,Brenna De Sousa Santos,Inscrição: 63749,Tel: (83) 99956-9352</t>
-  </si>
-  <si>
-    <t>filipe.igor20@gmail.com,Filipe Igor Lacerda Barbosa,Inscrição: 18613,Tel: (83) 99684-7198</t>
-  </si>
-  <si>
-    <t>oliviojose13002@gmail.com,OlÃ­vio JosÃ© Roque RogÃ©rio,Inscrição: 32424,Tel: (88) 99945-8160</t>
-  </si>
-  <si>
-    <t>jobson.josivaldo90@gmail.com,Jobson Josivaldo AraÃºjo Primo,Inscrição: 2303,Tel: (85) 99277-4248</t>
-  </si>
-  <si>
-    <t>daniloitap008@gmail.com,Jose Danilo Gomes Da Silva,Inscrição: 3119,Tel: (85) 99100-0468</t>
-  </si>
-  <si>
-    <t>eliezzer201@gmail.com,Ana Luiza Silva Sodre,Inscrição: 23989,Tel: (85) 98205-0574</t>
-  </si>
-  <si>
-    <t>paulanascimentoednavitoria@gmail.com,Edna VitÃ³ria De Paula Nascimento,Inscrição: 26389,Tel: (88) 99454-5634</t>
-  </si>
-  <si>
-    <t>douglasauggusto38@gmail.com,Douglas Augusto Sousa Alves,Inscrição: 51287,Tel: (88) 98833-3423</t>
-  </si>
-  <si>
-    <t>ribeirocristian67@gmail.com,Christian Pereira Ribeiro,Inscrição: 16989,Tel: (85) 99687-2215</t>
-  </si>
-  <si>
-    <t>barbaraellen0811@gmail.com,BÃ¡rbara Ellen De Brito Barros,Inscrição: 5106,Tel: (85) 98948-0659</t>
-  </si>
-  <si>
-    <t>sampaiosampaio1999@gmail.com,Nilton Silva Sampaio,Inscrição: 14923,Tel: (85) 98802-3414</t>
-  </si>
-  <si>
-    <t>fabiobenthho@gmail.com,Francisco FÃ¡bio Bento Da Silva,Inscrição: 584,Tel: (85) 98740-6200</t>
-  </si>
-  <si>
-    <t>pedro123amauri@gmail.com,Pedro Amauri Lima Dos Santos,Inscrição: 26433,Tel: (85) 98614-2293</t>
-  </si>
-  <si>
-    <t>yasmimranielleb123456@gmail.com,Yasmim Ranielle Da Silva Borge,Inscrição: 40569,Tel: (87) 99638-3000</t>
-  </si>
-  <si>
-    <t>misaelelins3@gmail.com,Misaele Da Silva Lins,Inscrição: 22655,Tel: (85) 99296-4414</t>
-  </si>
-  <si>
-    <t>gustavooliiver6@gmail.com,Gustavo Sousa Da Silva Monteiro,Inscrição: 29314,Tel: (85) 98991-3064</t>
-  </si>
-  <si>
-    <t>gf446878@gmail.com,Gabriel Dos Santos FranÃ§a,Inscrição: 67958,Tel: (86) 99586-7623</t>
-  </si>
-  <si>
-    <t>ytalo2806@gmail.com,Messias Ytalo Rego Da Silva,Inscrição: 498,Tel: (85) 98720-8139</t>
-  </si>
-  <si>
-    <t>gabrielalacerda1904@gmail.com,LetÃ­cia Gabriela Lacerda Da Silva,Inscrição: 58952,Tel: (91) 98305-8338</t>
-  </si>
-  <si>
-    <t>vittorfontenelle@gmail.com,JoÃ£o Vitor Fontenele Da Silva,Inscrição: 2179,Tel: (85) 99857-4718</t>
-  </si>
-  <si>
-    <t>llucasalves12@hotmail.com,Lucas Emanuel Alves Aguiar,Inscrição: 34224,Tel: (85) 99804-3355</t>
-  </si>
-  <si>
-    <t>andersonfelipe981@gmail.com,Anderson Felipe GonÃ§alves,Inscrição: 64218,Tel: (88) 98849-7034</t>
-  </si>
-  <si>
-    <t>allanmayron7@gmail.com,Allan Mayron Martins Tiburcio,Inscrição: 1416,Tel: (85) 99804-5372</t>
-  </si>
-  <si>
-    <t>davioliveiraneto99@gmail.com,Davi Correia De Oliveira,Inscrição: 17748,Tel: (85) 98992-2164</t>
-  </si>
-  <si>
-    <t>patrickb.macedo@gmail.com,Patrick Bernardo Macedo,Inscrição: 9443,Tel: (85) 98607-6536</t>
-  </si>
-  <si>
-    <t>jandsonf3@gmail.com,Jandson Ferreira Cavalcante,Inscrição: 17303,Tel: (87) 99204-0584</t>
-  </si>
-  <si>
-    <t>levilima025@gmail.com,Levi De Lima Vieira,Inscrição: 14857,Tel: (85) 98563-8820</t>
-  </si>
-  <si>
-    <t>yuridefreitasvasconcelos13@gmail.com,Yuri De Freitas Vasconcelos,Inscrição: 17727,Tel: (85) 99954-6729</t>
-  </si>
-  <si>
-    <t>wilgner.vaqueiro18@gmail.com,Wilgner Coelho De Souza,Inscrição: 50532,Tel: (85) 99219-8623</t>
-  </si>
-  <si>
-    <t>wellingtonoli.martins@gmail.com,Francisco Wellington Oliveira Martins,Inscrição: 9455,Tel: (88) 99299-6390</t>
-  </si>
-  <si>
-    <t>netosabino93@gmail.com,Francisco Sabino De Oliveira Neto,Inscrição: 8560,Tel: (85) 99215-1503</t>
-  </si>
-  <si>
-    <t>mateus1999probo@outlook.com,Mateus Batista Pereira Probo,Inscrição: 28031,Tel: (99) 98418-1787</t>
-  </si>
-  <si>
-    <t>jeanlucastg@gmail.com,Jean Lucas Torres GuimarÃ£es,Inscrição: 6460,Tel: (85) 98837-2111</t>
-  </si>
-  <si>
-    <t>curralvelhogilsonsantos@gmail.com,Gilson Manoel Dos Santos,Inscrição: 21302,Tel: (87) 99169-3944</t>
-  </si>
-  <si>
-    <t>marciohenrique2153@gmail.com,MÃ¡rcio Henrique Mota Alves,Inscrição: 53050,Tel: (88) 98824-3469</t>
-  </si>
-  <si>
-    <t>natalia.costasocial98@gmail.com,Natalia De Jesus Costa,Inscrição: 12112,Tel: (88) 99464-7056</t>
-  </si>
-  <si>
-    <t>jvaquino90@gmail.com,JoÃ£o Victor Paz De Aquino,Inscrição: 14224,Tel: (85) 99622-7989</t>
-  </si>
-  <si>
-    <t>andriolabarbara@gmail.com,Barbara Tuany De Carvalho Andriola,Inscrição: 5405,Tel: (88) 99439-7610</t>
-  </si>
-  <si>
-    <t>abeatrizcneiva@gmail.com,Ana Beatriz Costa Neiva,Inscrição: 52542,Tel: (89) 98806-7277</t>
-  </si>
-  <si>
-    <t>kauandavid851@gmail.com,Kauan David De Morais MendonÃ§a,Inscrição: 6811,Tel: (85) 99755-2241</t>
-  </si>
-  <si>
-    <t>joaocarlosmv@icloud.com,Joao Carlos Menezes Veras,Inscrição: 16905,Tel: (85) 98842-2887</t>
-  </si>
-  <si>
-    <t>ayres_bmx@hotmail.com,Francisco Ayres Da Silva,Inscrição: 1662,Tel: (84) 99630-2012</t>
-  </si>
-  <si>
-    <t>claudiafreirelp@gmail.com,Maria Claudia Silva Freire,Inscrição: 1027,Tel: (84) 98179-1068</t>
-  </si>
-  <si>
-    <t>avelinofelipe404@gmail.com,Antonio Felipe Sousa Avelino,Inscrição: 2421,Tel: (85) 98839-7529</t>
-  </si>
-  <si>
-    <t>marcosacarvalhon@gmail.com,Marcos Alberto De Carvalho Neto,Inscrição: 1422,Tel: (85) 98454-4636</t>
-  </si>
-  <si>
-    <t>vctrdgns@gmail.com,Claudio Victor Saldanha Mendes,Inscrição: 13021,Tel: (88) 92144-5842</t>
-  </si>
-  <si>
-    <t>yuribibliotecario@gmail.com,Rui Yuri De Mesquita Martins,Inscrição: 30928,Tel: (85) 98408-0862</t>
-  </si>
-  <si>
-    <t>sammarab95@gmail.com,Samara Barros De Almeida,Inscrição: 14332,Tel: (85) 98676-4772</t>
-  </si>
-  <si>
-    <t>kalleby.core@gmail.com,Calebe De Sousa Rodrigues,Inscrição: 35416,Tel: (86) 99819-2014</t>
-  </si>
-  <si>
-    <t>josuevieira928@gmail.com,JosuÃ© Vieira Do Nascimento,Inscrição: 45340,Tel: (85) 98134-3827</t>
-  </si>
-  <si>
-    <t>shitallo13@gmail.com,HÃ­tallo Samuel Gomes Da Silva,Inscrição: 13789,Tel: (87) 99901-0703</t>
-  </si>
-  <si>
-    <t>joaoantoniomoraislimaj@gmail.com,JoÃ£o AntÃ´nio De Morais Lima,Inscrição: 1627,Tel: (88) 99274-4792</t>
-  </si>
-  <si>
-    <t>felipe.cearasc@gmail.com,Felipe Barroso Da Silva,Inscrição: 17321,Tel: (85) 98563-3177</t>
-  </si>
-  <si>
-    <t>luishenrique1232015@gmail.com,Luiz Henrique De Freitas,Inscrição: 6651,Tel: (88) 99803-0662</t>
-  </si>
-  <si>
-    <t>jessicalarissa2005@hotmail.com,Jessica Larissa De Lima Farias,Inscrição: 37669,Tel: (83) 98653-6988</t>
-  </si>
-  <si>
-    <t>vitorfla0@gmail.com,JoÃ£o Vitor Moreira,Inscrição: 1930,Tel: (85) 99701-9020</t>
-  </si>
-  <si>
-    <t>marianaffarias96@gmail.com,Mariana Frota Farias,Inscrição: 7339,Tel: (85) 99660-7642</t>
-  </si>
-  <si>
-    <t>paulajcsampaio@gmail.com,Paula Jordana De Castro Sampaio,Inscrição: 28100,Tel: (68) 99223-1819</t>
-  </si>
-  <si>
-    <t>matheusroger209@gmail.com,Matheus Roger Medeiros MagalhÃ£es,Inscrição: 4655,Tel: (85) 99924-8902</t>
-  </si>
-  <si>
-    <t>ciceropaixao1716@gmail.com,Cicero Monte Pinheiro,Inscrição: 13218,Tel: (61) 98231-0593</t>
-  </si>
-  <si>
-    <t>caveirapmce0373@gmail.com,Francisco Alex AraÃºjo Gomes,Inscrição: 3397,Tel: (85) 98175-2514</t>
-  </si>
-  <si>
-    <t>nilsondefreitas23@gmail.com,JosÃ© Nilson De Freitas Filho,Inscrição: 5399,Tel: (85) 98714-5308</t>
-  </si>
-  <si>
-    <t>nobresilva123v@gmail.com,Vitor Nobre Da Silva,Inscrição: 25032,Tel: (85) 99159-1979</t>
-  </si>
-  <si>
-    <t>nbcosta543@gmail.com,Nilton Barros Da Costa,Inscrição: 65062,Tel: (85) 99665-0341</t>
-  </si>
-  <si>
-    <t>juniorsatirodealcantara@gmail.com,Francisco SÃ¡tiro De AlcÃ¢ntara JÃºnior,Inscrição: 34827,Tel: (85) 98777-8885</t>
-  </si>
-  <si>
-    <t>ryan.tadominado@gmail.com,Ryan Wesley Vieira Dos Santos,Inscrição: 59311,Tel: 088994494252</t>
-  </si>
-  <si>
-    <t>cursodso2023@gmail.com,Carlos Barreto De Jesus Neto,Inscrição: 3400,Tel: (79) 99963-7859</t>
-  </si>
-  <si>
-    <t>hiagocosta25@hotmail.com,Hiago Costa Lima,Inscrição: 57971,Tel: (85) 99604-7517</t>
-  </si>
-  <si>
-    <t>lainescarvalho33@gmail.com,Elaine Sousa De Carvalho,Inscrição: 38097,Tel: (88) 99983-1736</t>
-  </si>
-  <si>
-    <t>luh.colonnezi@gmail.com,Analu Colonnezi GonÃ§alves,Inscrição: 32838,Tel: (71) 99994-0185</t>
-  </si>
-  <si>
-    <t>indhirahanna24@gmail.com,Indhira Hanna Viegas Coelho,Inscrição: 41611,Tel: (86) 98825-0776</t>
-  </si>
-  <si>
-    <t>leonardo.wxbc@gmail.com,Leonardo Mendes Dos Santos,Inscrição: 59546,Tel: (85) 99993-7392</t>
-  </si>
-  <si>
-    <t>guilhermealvesmalta98@gmail.com,Geocelmar Teles Malta,Inscrição: 10320,Tel: (85) 99743-2145</t>
+    <t>sousaluiz035@gmail.com, Nome:Luiz Washington De Sousa Germano,Inscrição: 7991,Tel: (85) 99450-5678</t>
+  </si>
+  <si>
+    <t>fernando.firmino5882@gmail.com, Nome:Fernando Alves Firmino,Inscrição: 55920,Tel: (85) 99741-7646</t>
+  </si>
+  <si>
+    <t>jesusjpd9@gmail.com, Nome:Jesus Jussireldo Pereira Domingos,Inscrição: 3842,Tel: (88) 99300-8922</t>
+  </si>
+  <si>
+    <t>bia.tjcecorona@gmail.com, Nome:Beatriz Carvalho De Morais,Inscrição: 6906,Tel: (85) 99780-2656</t>
+  </si>
+  <si>
+    <t>brunozada9099@gmail.com, Nome:Bruno Silva Andrade Lacerda,Inscrição: 1051,Tel: (88) 99687-5622</t>
+  </si>
+  <si>
+    <t>robsonseid2000a@hotmaol.com, Nome:Robson Rodrigues Da Silva,Inscrição: 6803,Tel: (89) 99423-4072</t>
+  </si>
+  <si>
+    <t>arthurdesouzamatos@gmail.com, Nome:Arthur De Souza Matos,Inscrição: 4003,Tel: (85) 99964-1699</t>
+  </si>
+  <si>
+    <t>patriciarafaelacbrito@gmail.com, Nome:Patricia Rafaela Chaves Brito,Inscrição: 12024,Tel: (81) 99450-7050</t>
+  </si>
+  <si>
+    <t>jessicabarros432@gmail.com, Nome:Jessica Barros Lopes,Inscrição: 17,Tel: (85) 98531-6048</t>
+  </si>
+  <si>
+    <t>thaisaraujobarros12@gmail.com, Nome:Francisca Thais Rodrigues Araujo,Inscrição: 25333,Tel: (88) 99924-9150</t>
+  </si>
+  <si>
+    <t>pauloacacio20051262@gmail.com, Nome:Paulo Acacio Nascimento Da Silva,Inscrição: 16873,Tel: (85) 98503-8036</t>
+  </si>
+  <si>
+    <t>brendaivila7@gmail.com, Nome:Brenda Ãvila Carvalho De Oliveira,Inscrição: 7349,Tel: (85) 98706-3383</t>
+  </si>
+  <si>
+    <t>valdizialb@gmail.com, Nome:Maria Valdizia Lima Bernardino,Inscrição: 28198,Tel: (88) 99905-0399</t>
+  </si>
+  <si>
+    <t>monikagomesenzo@gmail.com, Nome:MÃ´nica Viana Gomes GirÃ£o,Inscrição: 10547,Tel: (85) 98163-7005</t>
+  </si>
+  <si>
+    <t>mssilvaguia@gmail.com, Nome:Maria Do Socorro Da Silva,Inscrição: 7166,Tel: (85) 98828-2882</t>
+  </si>
+  <si>
+    <t>vigabrielepereira0@gmail.com, Nome:VitÃ³ria Gabriele Pereira,Inscrição: 10489,Tel: (88) 98118-8027</t>
+  </si>
+  <si>
+    <t>elienemaximo94@gmail.com, Nome:Eliene Da Silva MÃ¡ximo,Inscrição: 13862,Tel: (88) 99648-5610</t>
+  </si>
+  <si>
+    <t>gabrielcavalcantee106@gmail.com, Nome:Gabriel Lucas Mendonca Cavalcante,Inscrição: 21996,Tel: (85) 98433-7796</t>
+  </si>
+  <si>
+    <t>virnasousa13@gmail.com, Nome:Virna VictÃ³ria De Sousa Cardoso,Inscrição: 22568,Tel: (85) 99954-3300</t>
+  </si>
+  <si>
+    <t>contatosamyan@gmail.com, Nome:Samya Nogueira Da Silva,Inscrição: 9072,Tel: (88) 99766-4628</t>
+  </si>
+  <si>
+    <t>stavaresalmeida@gmail.com, Nome:Sara Tavares De Almeida Peixoto,Inscrição: 1697,Tel: (85) 98775-8180</t>
+  </si>
+  <si>
+    <t>passosceres@gmail.com, Nome:Ceres Passos Vaz Da Costa,Inscrição: 29419,Tel: (86) 99946-0831</t>
+  </si>
+  <si>
+    <t>thalitatorquatol@gmail.com, Nome:Thalita Torquato Lins,Inscrição: 14090,Tel: (85) 99674-1471</t>
+  </si>
+  <si>
+    <t>kholandafarias@gmail.com, Nome:Karina Holanda Farias,Inscrição: 3448,Tel: (85) 98587-2207</t>
+  </si>
+  <si>
+    <t>rcmari6@gmail.com, Nome:Mariana Rocha Correa,Inscrição: 15095,Tel: (21) 98701-3770</t>
+  </si>
+  <si>
+    <t>marden10alves@gmail.com, Nome:Francisco Marden Alves De Souza,Inscrição: 38721,Tel: (85) 98602-1823</t>
+  </si>
+  <si>
+    <t>zadylac@gmail.com, Nome:Zadyla Maria Cipriano Eloi,Inscrição: 17479,Tel: (85) 98949-8630</t>
+  </si>
+  <si>
+    <t>jessysouza470@gmail.com, Nome:Jessica De Souza Saldanha Lima,Inscrição: 38885,Tel: (85) 98736-0198</t>
+  </si>
+  <si>
+    <t>thamy.1628@gmail.com, Nome:Thamy Adalgiza Bastos Gomes,Inscrição: 9668,Tel: (85) 99794-6583</t>
+  </si>
+  <si>
+    <t>nayannefreitasf30@gmail.com, Nome:Nayanne Freitas FÃ©lix,Inscrição: 14474,Tel: (88) 99609-0085</t>
+  </si>
+  <si>
+    <t>dayrianecrios@gmail.com, Nome:Dayriane Cristina Felix Rios,Inscrição: 14176,Tel: (84) 99629-8485</t>
+  </si>
+  <si>
+    <t>flavioj2271@gmail.com, Nome:Flavio Junior Sampaio Da Costa,Inscrição: 22990,Tel: (85) 99434-0970</t>
+  </si>
+  <si>
+    <t>maiabruna387@gmail.com, Nome:Bruna Raquel Maia Da Silva,Inscrição: 16998,Tel: (85) 98406-3689</t>
+  </si>
+  <si>
+    <t>naiaraujo36@gmail.com, Nome:Naiara Herleany Araujo Barros Leal,Inscrição: 6828,Tel: (86) 99536-4161</t>
+  </si>
+  <si>
+    <t>prof.alexqueiroz3@gmail.com, Nome:Alexsandro Paulo Soares De Queiroz,Inscrição: 1543,Tel: (81) 99202-7897</t>
+  </si>
+  <si>
+    <t>karolinyolindas@gmail.com, Nome:Maria Karoliny Olinda Dos Santos,Inscrição: 19930,Tel: (85) 99164-0634</t>
+  </si>
+  <si>
+    <t>elisaary@gmail.com, Nome:Elisa Moreira Ary,Inscrição: 21622,Tel: (85) 99281-4494</t>
+  </si>
+  <si>
+    <t>edilvania44f@gmail.com, Nome:Edilvania Ferreira Cardoso,Inscrição: 27445,Tel: (88) 98230-6009</t>
+  </si>
+  <si>
+    <t>raissapdcs@gmail.com, Nome:Raissa Paula Dantas Cardoso Da Silva,Inscrição: 7269,Tel: (85) 99858-6045</t>
+  </si>
+  <si>
+    <t>nathangomens309512@gmail.com, Nome:Natanael Gomes MourÃ£o,Inscrição: 7944,Tel: (85) 99149-8625</t>
+  </si>
+  <si>
+    <t>jessicaloyserib@gmail.com, Nome:JÃ©ssica Loyse De Oliveira Ribeiro,Inscrição: 9388,Tel: (88) 99781-9086</t>
+  </si>
+  <si>
+    <t>melynamkss@gmail.com, Nome:Melyna Kelly De Souza Silva,Inscrição: 4025,Tel: (85) 99662-0544</t>
+  </si>
+  <si>
+    <t>cherabaygon@gmail.com, Nome:Alisson Feitosa Guerra,Inscrição: 4068,Tel: (85) 98149-8229</t>
+  </si>
+  <si>
+    <t>linsandreza6@gmail.com, Nome:Cicera Andreza Barbosa Lins,Inscrição: 28217,Tel: (88) 99708-9017</t>
+  </si>
+  <si>
+    <t>deboraprado86@gmail.com, Nome:Debora Prado Gomes,Inscrição: 29364,Tel: (85) 99749-0282</t>
+  </si>
+  <si>
+    <t>cleberdiego@gmail.com, Nome:Cleber Diego Pinto Cavalcante Ferreira,Inscrição: 37264,Tel: (85) 98582-7570</t>
+  </si>
+  <si>
+    <t>contatojackelinepereira@gmail.com, Nome:Maria Jackeline Pereira De Lima,Inscrição: 9929,Tel: (88) 92163-2151</t>
+  </si>
+  <si>
+    <t>luizcarlossudariofilho@gmail.com, Nome:Luiz Carlos Sudario Filho,Inscrição: 22772,Tel: (85) 98773-3609</t>
+  </si>
+  <si>
+    <t>perolamedeiros1@gmail.com, Nome:Perola Medeiros Farias,Inscrição: 28887,Tel: (85) 99915-8943</t>
+  </si>
+  <si>
+    <t>samianesoares@gmail.com, Nome:Samiane Moreira De Sousa,Inscrição: 1009079,Tel: (85) 99224-8136</t>
+  </si>
+  <si>
+    <t>vanessanogueiraadv@gmail.com, Nome:Vanessa Maria Nogueira MagalhÃ£es,Inscrição: 19131,Tel: (85) 99960-1426</t>
+  </si>
+  <si>
+    <t>daniele.rioslele@gmail.com, Nome:Daniele Sousa Rios Aquino,Inscrição: 25756,Tel: (85) 98886-0779</t>
+  </si>
+  <si>
+    <t>gomesthais.st@gmail.com, Nome:ThaÃ­s Gomes Da Silva,Inscrição: 1117,Tel: (88) 99838-9887</t>
+  </si>
+  <si>
+    <t>raianepereira118@gmail.com, Nome:Francisca Raiane De Sousa Pereira,Inscrição: 6462,Tel: (85) 98622-7589</t>
+  </si>
+  <si>
+    <t>caiobarbosa883@gmail.com, Nome:Caio Barboza De Oliveira,Inscrição: 18323,Tel: (85) 99439-2047</t>
+  </si>
+  <si>
+    <t>rosivandohbl@gmail.com, Nome:Rosivando Assuncao De Andrade Costa,Inscrição: 1474,Tel: (88) 99808-1167</t>
+  </si>
+  <si>
+    <t>jaredyjaredy@gmail.com, Nome:JÃ¡redy Henrique Soares Cardoso,Inscrição: 3471,Tel: (86) 99490-0800</t>
+  </si>
+  <si>
+    <t>janainaguimaraess10@gmail.com, Nome:JanaÃ­na GuimarÃ£es Pereira,Inscrição: 34990,Tel: 8599343094</t>
+  </si>
+  <si>
+    <t>vanessaandrads@gmail.com, Nome:Francisca Vanessa Silva De Andrade,Inscrição: 13746,Tel: (85) 98673-5628</t>
+  </si>
+  <si>
+    <t>alexandra.alane@gmail.com, Nome:Alexandra Alane Costa Da Silva,Inscrição: 22698,Tel: (85) 98718-8910</t>
+  </si>
+  <si>
+    <t>raphael9029@gmail.com, Nome:Raphael Albuquerque Lima,Inscrição: 30749,Tel: (85) 98199-2538</t>
+  </si>
+  <si>
+    <t>allan.dsm12225634@gmail.com, Nome:Allan De Sousa Marques,Inscrição: 38015,Tel: (88) 98167-5943</t>
+  </si>
+  <si>
+    <t>emersonmgoncalves2020@gmail.com, Nome:Emerson Moura GonÃ§alves,Inscrição: 28550,Tel: (85) 99283-5485</t>
+  </si>
+  <si>
+    <t>laragomes2k2@gmail.com, Nome:Maria Lara Matos Gomes,Inscrição: 3942,Tel: (85) 99434-9581</t>
+  </si>
+  <si>
+    <t>mesquitamotta25@gmail.com, Nome:Antonio Caiorilck De Meneses Motta,Inscrição: 2712,Tel: (61) 99927-5212</t>
+  </si>
+  <si>
+    <t>deniltond8@gmail.com, Nome:Denilton Araujo De Souza,Inscrição: 11043,Tel: (88) 99346-0006</t>
+  </si>
+  <si>
+    <t>lucasvale737@gmail.com, Nome:Francisco Lucas Do Vale Santana,Inscrição: 31697,Tel: (86) 98841-6402</t>
+  </si>
+  <si>
+    <t>diegoyvens.a.a@gmail.com, Nome:Diego Yvens AlcÃ¢ntara De AraÃºjo,Inscrição: 9368,Tel: (85) 99750-8366</t>
+  </si>
+  <si>
+    <t>eduardo.mauriciogadelha@gmail.com, Nome:Eduardo Mauricio Gadelha,Inscrição: 26565,Tel: (88) 99717-7043</t>
+  </si>
+  <si>
+    <t>elvis.s.n.filho@gmail.com, Nome:Elvis Sales Do Nascimento Filho,Inscrição: 24664,Tel: (88) 99644-2117</t>
+  </si>
+  <si>
+    <t>silvadarocha189@gmail.com, Nome:Francisco Da Silva Rocha,Inscrição: 16748,Tel: (88) 99320-9789</t>
+  </si>
+  <si>
+    <t>lorenalmoreira.adv@gmail.com, Nome:Lorena Lima Moreira Freire,Inscrição: 13067,Tel: (85) 98819-6167</t>
+  </si>
+  <si>
+    <t>danyela.santosss81@gmail.com, Nome:Daniela Sales Dos Santos,Inscrição: 18657,Tel: (85) 98797-3035</t>
+  </si>
+  <si>
+    <t>isacsouza425163@gmail.com, Nome:Isac Da Silva Souza,Inscrição: 33759,Tel: (88) 98164-2591</t>
+  </si>
+  <si>
+    <t>andre.lemos.profissional1@gmail.com, Nome:Carlos AndrÃ© Lemos Vieira,Inscrição: 4047,Tel: (88) 99939-3263</t>
+  </si>
+  <si>
+    <t>pedroengufu31@gmail.com, Nome:Pedro Paulo De Araujo Neto,Inscrição: 26801,Tel: (61) 98142-8170</t>
+  </si>
+  <si>
+    <t>isabella.vieira.lima25@gmail.com, Nome:Isabella Vieira De Lima,Inscrição: 15799,Tel: (88) 99960-2894</t>
+  </si>
+  <si>
+    <t>freitaslarine@gmail.com, Nome:Larine Freitas Do Nascimento,Inscrição: 6359,Tel: (85) 99133-3389</t>
+  </si>
+  <si>
+    <t>pamelalencars@gmail.com, Nome:PÃ¢mela NÃ¡iade De Alencar Souza,Inscrição: 33902,Tel: (84) 98723-4448</t>
+  </si>
+  <si>
+    <t>franciscomelodossantos4@gmail.com, Nome:Francisco Melo Dos Santos,Inscrição: 21114,Tel: (85) 99872-0814</t>
+  </si>
+  <si>
+    <t>davilessai7@gmail.com, Nome:Davi MendonÃ§a Lessa,Inscrição: 2225,Tel: (85) 99268-9597</t>
+  </si>
+  <si>
+    <t>leoosousa13@gmail.com, Nome:Leonardo Sousa Viana,Inscrição: 45184,Tel: (85) 98716-5359</t>
+  </si>
+  <si>
+    <t>guidscb@gmail.com, Nome:JosÃ© Guilherme Damasceno Braz,Inscrição: 11782,Tel: (85) 99277-5165</t>
+  </si>
+  <si>
+    <t>kaykyryan000@gmail.com, Nome:Kayky Ryan Benevides Nogueira,Inscrição: 55892,Tel: (88) 99245-9172</t>
+  </si>
+  <si>
+    <t>fernandoeletri@gmail.com, Nome:Fernando ApolinÃ¡rio Da Cunha,Inscrição: 14400,Tel: (85) 99626-7967</t>
+  </si>
+  <si>
+    <t>esterpri21@gmail.com, Nome:Ester Priscila Oliveira Carneiro,Inscrição: 8252,Tel: (85) 99192-4791</t>
+  </si>
+  <si>
+    <t>joaopedroviana100@gmail.com, Nome:JoÃ£o Pedro Viana Alves,Inscrição: 10817,Tel: (85) 99248-4741</t>
+  </si>
+  <si>
+    <t>paulamm275@gmail.com, Nome:Paula Aline Rodrigues Moura,Inscrição: 18000,Tel: (85) 98855-7243</t>
+  </si>
+  <si>
+    <t>ronaldo320filho@gmail.com, Nome:Ronaldo Costa Macedo Filho,Inscrição: 45779,Tel: (88) 98126-2741</t>
+  </si>
+  <si>
+    <t>eridamacieldesa@gmail.com, Nome:Erida Christie Maciel De Sa,Inscrição: 4475,Tel: (85) 98184-1944</t>
+  </si>
+  <si>
+    <t>tamirestamiresbessa@gmail.com, Nome:Tamires Bessa MagalhÃ£es,Inscrição: 5249,Tel: (85) 98615-0080</t>
+  </si>
+  <si>
+    <t>brunovanderbio17@gmail.com, Nome:Bruno Vanderbio De Medeiros Andrade,Inscrição: 58139,Tel: (87) 99961-6232</t>
+  </si>
+  <si>
+    <t>jairo.lobito@gmail.com, Nome:Jairo Albano Lobo Dos Santos,Inscrição: 24951,Tel: (85) 99184-8046</t>
+  </si>
+  <si>
+    <t>matheusamorim6582@gmail.com, Nome:Matheus Isaias De Oliveira Aguiar Amorim,Inscrição: 58126,Tel: (86) 99555-2613</t>
+  </si>
+  <si>
+    <t>anisiademoraes@gmail.com, Nome:Anisia Helena De Moraes Ferreira,Inscrição: 39693,Tel: (85) 99767-0542</t>
+  </si>
+  <si>
+    <t>andersonpepimenta@gmail.com, Nome:Anderson Pessoa Pimenta,Inscrição: 58016,Tel: (88) 99714-1316</t>
+  </si>
+  <si>
+    <t>franciscog2tt@gmail.com, Nome:Francisco Alisson Maciel Cruz,Inscrição: 3317,Tel: (88) 99656-9314</t>
+  </si>
+  <si>
+    <t>fthales79@gmail.com, Nome:Thales Felipe Santos Luz,Inscrição: 26806,Tel: (84) 98792-6050</t>
+  </si>
+  <si>
+    <t>k.32010@hotmail.com, Nome:Jean Carlos Silva Araujo Junior,Inscrição: 52241,Tel: (86) 99949-9195</t>
+  </si>
+  <si>
+    <t>jnmatheus5@gmail.com, Nome:Juan Matheus Nunes Cavalcante,Inscrição: 2856,Tel: (85) 98733-9168</t>
+  </si>
+  <si>
+    <t>ed.offsilva@gmail.com, Nome:Eduardo Fernandes Da Silva,Inscrição: 1392,Tel: (85) 98773-9108</t>
+  </si>
+  <si>
+    <t>germanotiago4@gmail.com, Nome:Tiago Germano Fonseca Beserra,Inscrição: 4349,Tel: (86) 99402-5926</t>
+  </si>
+  <si>
+    <t>caioc.a170298@gmail.com, Nome:Caio De Albuquerque Castilho,Inscrição: 56731,Tel: (85) 99900-6866</t>
+  </si>
+  <si>
+    <t>carlosmateusferreiraaraujo@gmail.com, Nome:Carlos Mateus Araujo Mesquita,Inscrição: 1882,Tel: (85) 99127-9570</t>
+  </si>
+  <si>
+    <t>bboaventuras@hotmail.com, Nome:Beatriz Boaventura Souza,Inscrição: 9628,Tel: (75) 98115-7412</t>
+  </si>
+  <si>
+    <t>joaovitoralves15@gmail.com, Nome:JoÃ£o Vitor Alves De Souza,Inscrição: 29748,Tel: (85) 99246-7391</t>
+  </si>
+  <si>
+    <t>georgiaviana07@gmail.com, Nome:Georgia Viana Peixoto De Araujo,Inscrição: 7366,Tel: (85) 98507-2844</t>
+  </si>
+  <si>
+    <t>bruna.fisioterapiag2@gmail.com, Nome:Bruna Stefane Da Silva Lima,Inscrição: 23499,Tel: (74) 98817-6762</t>
+  </si>
+  <si>
+    <t>denispontespf@gmail.com, Nome:Denis Pontes Queiroz,Inscrição: 6576,Tel: (88) 98133-1272</t>
+  </si>
+  <si>
+    <t>brennasousa201712@gmail.com, Nome:Brenna De Sousa Santos,Inscrição: 63749,Tel: (83) 99956-9352</t>
+  </si>
+  <si>
+    <t>filipe.igor20@gmail.com, Nome:Filipe Igor Lacerda Barbosa,Inscrição: 18613,Tel: (83) 99684-7198</t>
+  </si>
+  <si>
+    <t>oliviojose13002@gmail.com, Nome:OlÃ­vio JosÃ© Roque RogÃ©rio,Inscrição: 32424,Tel: (88) 99945-8160</t>
+  </si>
+  <si>
+    <t>jobson.josivaldo90@gmail.com, Nome:Jobson Josivaldo AraÃºjo Primo,Inscrição: 2303,Tel: (85) 99277-4248</t>
+  </si>
+  <si>
+    <t>daniloitap008@gmail.com, Nome:Jose Danilo Gomes Da Silva,Inscrição: 3119,Tel: (85) 99100-0468</t>
+  </si>
+  <si>
+    <t>eliezzer201@gmail.com, Nome:Ana Luiza Silva Sodre,Inscrição: 23989,Tel: (85) 98205-0574</t>
+  </si>
+  <si>
+    <t>paulanascimentoednavitoria@gmail.com, Nome:Edna VitÃ³ria De Paula Nascimento,Inscrição: 26389,Tel: (88) 99454-5634</t>
+  </si>
+  <si>
+    <t>douglasauggusto38@gmail.com, Nome:Douglas Augusto Sousa Alves,Inscrição: 51287,Tel: (88) 98833-3423</t>
+  </si>
+  <si>
+    <t>ribeirocristian67@gmail.com, Nome:Christian Pereira Ribeiro,Inscrição: 16989,Tel: (85) 99687-2215</t>
+  </si>
+  <si>
+    <t>barbaraellen0811@gmail.com, Nome:BÃ¡rbara Ellen De Brito Barros,Inscrição: 5106,Tel: (85) 98948-0659</t>
+  </si>
+  <si>
+    <t>sampaiosampaio1999@gmail.com, Nome:Nilton Silva Sampaio,Inscrição: 14923,Tel: (85) 98802-3414</t>
+  </si>
+  <si>
+    <t>fabiobenthho@gmail.com, Nome:Francisco FÃ¡bio Bento Da Silva,Inscrição: 584,Tel: (85) 98740-6200</t>
+  </si>
+  <si>
+    <t>pedro123amauri@gmail.com, Nome:Pedro Amauri Lima Dos Santos,Inscrição: 26433,Tel: (85) 98614-2293</t>
+  </si>
+  <si>
+    <t>yasmimranielleb123456@gmail.com, Nome:Yasmim Ranielle Da Silva Borge,Inscrição: 40569,Tel: (87) 99638-3000</t>
+  </si>
+  <si>
+    <t>misaelelins3@gmail.com, Nome:Misaele Da Silva Lins,Inscrição: 22655,Tel: (85) 99296-4414</t>
+  </si>
+  <si>
+    <t>gustavooliiver6@gmail.com, Nome:Gustavo Sousa Da Silva Monteiro,Inscrição: 29314,Tel: (85) 98991-3064</t>
+  </si>
+  <si>
+    <t>gf446878@gmail.com, Nome:Gabriel Dos Santos FranÃ§a,Inscrição: 67958,Tel: (86) 99586-7623</t>
+  </si>
+  <si>
+    <t>ytalo2806@gmail.com, Nome:Messias Ytalo Rego Da Silva,Inscrição: 498,Tel: (85) 98720-8139</t>
+  </si>
+  <si>
+    <t>gabrielalacerda1904@gmail.com, Nome:LetÃ­cia Gabriela Lacerda Da Silva,Inscrição: 58952,Tel: (91) 98305-8338</t>
+  </si>
+  <si>
+    <t>vittorfontenelle@gmail.com, Nome:JoÃ£o Vitor Fontenele Da Silva,Inscrição: 2179,Tel: (85) 99857-4718</t>
+  </si>
+  <si>
+    <t>llucasalves12@hotmail.com, Nome:Lucas Emanuel Alves Aguiar,Inscrição: 34224,Tel: (85) 99804-3355</t>
+  </si>
+  <si>
+    <t>andersonfelipe981@gmail.com, Nome:Anderson Felipe GonÃ§alves,Inscrição: 64218,Tel: (88) 98849-7034</t>
+  </si>
+  <si>
+    <t>allanmayron7@gmail.com, Nome:Allan Mayron Martins Tiburcio,Inscrição: 1416,Tel: (85) 99804-5372</t>
+  </si>
+  <si>
+    <t>davioliveiraneto99@gmail.com, Nome:Davi Correia De Oliveira,Inscrição: 17748,Tel: (85) 98992-2164</t>
+  </si>
+  <si>
+    <t>patrickb.macedo@gmail.com, Nome:Patrick Bernardo Macedo,Inscrição: 9443,Tel: (85) 98607-6536</t>
+  </si>
+  <si>
+    <t>jandsonf3@gmail.com, Nome:Jandson Ferreira Cavalcante,Inscrição: 17303,Tel: (87) 99204-0584</t>
+  </si>
+  <si>
+    <t>levilima025@gmail.com, Nome:Levi De Lima Vieira,Inscrição: 14857,Tel: (85) 98563-8820</t>
+  </si>
+  <si>
+    <t>yuridefreitasvasconcelos13@gmail.com, Nome:Yuri De Freitas Vasconcelos,Inscrição: 17727,Tel: (85) 99954-6729</t>
+  </si>
+  <si>
+    <t>wilgner.vaqueiro18@gmail.com, Nome:Wilgner Coelho De Souza,Inscrição: 50532,Tel: (85) 99219-8623</t>
+  </si>
+  <si>
+    <t>wellingtonoli.martins@gmail.com, Nome:Francisco Wellington Oliveira Martins,Inscrição: 9455,Tel: (88) 99299-6390</t>
+  </si>
+  <si>
+    <t>netosabino93@gmail.com, Nome:Francisco Sabino De Oliveira Neto,Inscrição: 8560,Tel: (85) 99215-1503</t>
+  </si>
+  <si>
+    <t>mateus1999probo@outlook.com, Nome:Mateus Batista Pereira Probo,Inscrição: 28031,Tel: (99) 98418-1787</t>
+  </si>
+  <si>
+    <t>jeanlucastg@gmail.com, Nome:Jean Lucas Torres GuimarÃ£es,Inscrição: 6460,Tel: (85) 98837-2111</t>
+  </si>
+  <si>
+    <t>curralvelhogilsonsantos@gmail.com, Nome:Gilson Manoel Dos Santos,Inscrição: 21302,Tel: (87) 99169-3944</t>
+  </si>
+  <si>
+    <t>marciohenrique2153@gmail.com, Nome:MÃ¡rcio Henrique Mota Alves,Inscrição: 53050,Tel: (88) 98824-3469</t>
+  </si>
+  <si>
+    <t>natalia.costasocial98@gmail.com, Nome:Natalia De Jesus Costa,Inscrição: 12112,Tel: (88) 99464-7056</t>
+  </si>
+  <si>
+    <t>jvaquino90@gmail.com, Nome:JoÃ£o Victor Paz De Aquino,Inscrição: 14224,Tel: (85) 99622-7989</t>
+  </si>
+  <si>
+    <t>andriolabarbara@gmail.com, Nome:Barbara Tuany De Carvalho Andriola,Inscrição: 5405,Tel: (88) 99439-7610</t>
+  </si>
+  <si>
+    <t>abeatrizcneiva@gmail.com, Nome:Ana Beatriz Costa Neiva,Inscrição: 52542,Tel: (89) 98806-7277</t>
+  </si>
+  <si>
+    <t>kauandavid851@gmail.com, Nome:Kauan David De Morais MendonÃ§a,Inscrição: 6811,Tel: (85) 99755-2241</t>
+  </si>
+  <si>
+    <t>joaocarlosmv@icloud.com, Nome:Joao Carlos Menezes Veras,Inscrição: 16905,Tel: (85) 98842-2887</t>
+  </si>
+  <si>
+    <t>ayres_bmx@hotmail.com, Nome:Francisco Ayres Da Silva,Inscrição: 1662,Tel: (84) 99630-2012</t>
+  </si>
+  <si>
+    <t>claudiafreirelp@gmail.com, Nome:Maria Claudia Silva Freire,Inscrição: 1027,Tel: (84) 98179-1068</t>
+  </si>
+  <si>
+    <t>avelinofelipe404@gmail.com, Nome:Antonio Felipe Sousa Avelino,Inscrição: 2421,Tel: (85) 98839-7529</t>
+  </si>
+  <si>
+    <t>marcosacarvalhon@gmail.com, Nome:Marcos Alberto De Carvalho Neto,Inscrição: 1422,Tel: (85) 98454-4636</t>
+  </si>
+  <si>
+    <t>vctrdgns@gmail.com, Nome:Claudio Victor Saldanha Mendes,Inscrição: 13021,Tel: (88) 92144-5842</t>
+  </si>
+  <si>
+    <t>yuribibliotecario@gmail.com, Nome:Rui Yuri De Mesquita Martins,Inscrição: 30928,Tel: (85) 98408-0862</t>
+  </si>
+  <si>
+    <t>sammarab95@gmail.com, Nome:Samara Barros De Almeida,Inscrição: 14332,Tel: (85) 98676-4772</t>
+  </si>
+  <si>
+    <t>kalleby.core@gmail.com, Nome:Calebe De Sousa Rodrigues,Inscrição: 35416,Tel: (86) 99819-2014</t>
+  </si>
+  <si>
+    <t>josuevieira928@gmail.com, Nome:JosuÃ© Vieira Do Nascimento,Inscrição: 45340,Tel: (85) 98134-3827</t>
+  </si>
+  <si>
+    <t>shitallo13@gmail.com, Nome:HÃ­tallo Samuel Gomes Da Silva,Inscrição: 13789,Tel: (87) 99901-0703</t>
+  </si>
+  <si>
+    <t>joaoantoniomoraislimaj@gmail.com, Nome:JoÃ£o AntÃ´nio De Morais Lima,Inscrição: 1627,Tel: (88) 99274-4792</t>
+  </si>
+  <si>
+    <t>felipe.cearasc@gmail.com, Nome:Felipe Barroso Da Silva,Inscrição: 17321,Tel: (85) 98563-3177</t>
+  </si>
+  <si>
+    <t>luishenrique1232015@gmail.com, Nome:Luiz Henrique De Freitas,Inscrição: 6651,Tel: (88) 99803-0662</t>
+  </si>
+  <si>
+    <t>jessicalarissa2005@hotmail.com, Nome:Jessica Larissa De Lima Farias,Inscrição: 37669,Tel: (83) 98653-6988</t>
+  </si>
+  <si>
+    <t>vitorfla0@gmail.com, Nome:JoÃ£o Vitor Moreira,Inscrição: 1930,Tel: (85) 99701-9020</t>
+  </si>
+  <si>
+    <t>marianaffarias96@gmail.com, Nome:Mariana Frota Farias,Inscrição: 7339,Tel: (85) 99660-7642</t>
+  </si>
+  <si>
+    <t>paulajcsampaio@gmail.com, Nome:Paula Jordana De Castro Sampaio,Inscrição: 28100,Tel: (68) 99223-1819</t>
+  </si>
+  <si>
+    <t>matheusroger209@gmail.com, Nome:Matheus Roger Medeiros MagalhÃ£es,Inscrição: 4655,Tel: (85) 99924-8902</t>
+  </si>
+  <si>
+    <t>ciceropaixao1716@gmail.com, Nome:Cicero Monte Pinheiro,Inscrição: 13218,Tel: (61) 98231-0593</t>
+  </si>
+  <si>
+    <t>caveirapmce0373@gmail.com, Nome:Francisco Alex AraÃºjo Gomes,Inscrição: 3397,Tel: (85) 98175-2514</t>
+  </si>
+  <si>
+    <t>nilsondefreitas23@gmail.com, Nome:JosÃ© Nilson De Freitas Filho,Inscrição: 5399,Tel: (85) 98714-5308</t>
+  </si>
+  <si>
+    <t>nobresilva123v@gmail.com, Nome:Vitor Nobre Da Silva,Inscrição: 25032,Tel: (85) 99159-1979</t>
+  </si>
+  <si>
+    <t>nbcosta543@gmail.com, Nome:Nilton Barros Da Costa,Inscrição: 65062,Tel: (85) 99665-0341</t>
+  </si>
+  <si>
+    <t>juniorsatirodealcantara@gmail.com, Nome:Francisco SÃ¡tiro De AlcÃ¢ntara JÃºnior,Inscrição: 34827,Tel: (85) 98777-8885</t>
+  </si>
+  <si>
+    <t>ryan.tadominado@gmail.com, Nome:Ryan Wesley Vieira Dos Santos,Inscrição: 59311,Tel: 088994494252</t>
+  </si>
+  <si>
+    <t>cursodso2023@gmail.com, Nome:Carlos Barreto De Jesus Neto,Inscrição: 3400,Tel: (79) 99963-7859</t>
+  </si>
+  <si>
+    <t>hiagocosta25@hotmail.com, Nome:Hiago Costa Lima,Inscrição: 57971,Tel: (85) 99604-7517</t>
+  </si>
+  <si>
+    <t>lainescarvalho33@gmail.com, Nome:Elaine Sousa De Carvalho,Inscrição: 38097,Tel: (88) 99983-1736</t>
+  </si>
+  <si>
+    <t>luh.colonnezi@gmail.com, Nome:Analu Colonnezi GonÃ§alves,Inscrição: 32838,Tel: (71) 99994-0185</t>
+  </si>
+  <si>
+    <t>indhirahanna24@gmail.com, Nome:Indhira Hanna Viegas Coelho,Inscrição: 41611,Tel: (86) 98825-0776</t>
+  </si>
+  <si>
+    <t>leonardo.wxbc@gmail.com, Nome:Leonardo Mendes Dos Santos,Inscrição: 59546,Tel: (85) 99993-7392</t>
+  </si>
+  <si>
+    <t>guilhermealvesmalta98@gmail.com, Nome:Geocelmar Teles Malta,Inscrição: 10320,Tel: (85) 99743-2145</t>
   </si>
 </sst>
 </file>
@@ -1133,6 +1133,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1454,8 +1458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FCEBD8-6740-4C22-973D-9C2007F8C876}">
   <dimension ref="A1:J184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,153 +1471,153 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
@@ -2384,8 +2388,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="sousaluiz035@gmail.com,Luiz Washington De Sousa Germano,Inscricao: 7991,Tel: (85) 99450-5678" xr:uid="{F87B7372-01CE-4ABE-B2D7-070FA97A750A}"/>
+    <hyperlink ref="A3" r:id="rId2" display="fernando.firmino5882@gmail.com,Fernando Alves Firmino,Inscrição: 55920,Tel: (85) 99741-7646" xr:uid="{CBF5D996-BCF1-4B5C-8448-F1AEB4B6ED80}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/UECE TURMA IV - Panda Vídeo.xlsx
+++ b/UECE TURMA IV - Panda Vídeo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b48a3a89ec7ce938/ANTIGOS/Documentos/GitHub/APsycho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{4FE64627-6356-4F85-8954-C296B6A507B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1482F39-8979-4D37-ABEB-A7EFF3A61833}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{4FE64627-6356-4F85-8954-C296B6A507B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34C77197-418D-47BD-BFB5-731519440DA7}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2220" windowWidth="20730" windowHeight="11760" xr2:uid="{14D77176-CA24-4BBB-ADA7-272B8DEB25FE}"/>
   </bookViews>
@@ -1459,7 +1459,7 @@
   <dimension ref="A1:J184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="H186" sqref="H186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
